--- a/legislator/property/output/normal/王惠美_2012-03-31_財產申報表_tmp99d31.xlsx
+++ b/legislator/property/output/normal/王惠美_2012-03-31_財產申報表_tmp99d31.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="119">
   <si>
     <t>土地坐落</t>
   </si>
@@ -167,6 +167,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -176,7 +179,7 @@
     <t>legislator_id</t>
   </si>
   <si>
-    <t>為升電裝工業股份有限公 司</t>
+    <t>為升電裝工業股份有限公司</t>
   </si>
   <si>
     <t>佳能企業股份有限公司</t>
@@ -192,6 +195,9 @@
   </si>
   <si>
     <t>合庫(信託部）</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2012-03-31</t>
@@ -1109,13 +1115,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>42</v>
       </c>
@@ -1143,13 +1149,16 @@
       <c r="J1" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>10</v>
@@ -1167,21 +1176,24 @@
         <v>30000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="2">
+        <v>59</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="2">
         <v>1729</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>10</v>
@@ -1199,21 +1211,24 @@
         <v>10000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="2">
+        <v>59</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="2">
         <v>1729</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
@@ -1231,21 +1246,24 @@
         <v>22000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="2">
+        <v>59</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="2">
         <v>1729</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>62</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
@@ -1263,21 +1281,24 @@
         <v>10200</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="2">
+        <v>59</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="2">
         <v>1729</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>63</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>26</v>
@@ -1295,21 +1316,24 @@
         <v>104400</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="2">
+        <v>59</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="2">
         <v>1729</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>64</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>26</v>
@@ -1327,12 +1351,15 @@
         <v>53000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="2">
+        <v>59</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="2">
         <v>1729</v>
       </c>
     </row>
@@ -1351,19 +1378,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>33</v>
@@ -1374,7 +1401,7 @@
         <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
@@ -1397,14 +1424,14 @@
         <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -1414,22 +1441,22 @@
         <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1447,16 +1474,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1464,10 +1491,10 @@
         <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>10</v>
@@ -1481,10 +1508,10 @@
         <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
@@ -1498,10 +1525,10 @@
         <v>90</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
@@ -1515,10 +1542,10 @@
         <v>91</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
@@ -1532,10 +1559,10 @@
         <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>26</v>
@@ -1549,10 +1576,10 @@
         <v>93</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
@@ -1566,10 +1593,10 @@
         <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>26</v>
@@ -1583,10 +1610,10 @@
         <v>95</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>10</v>
@@ -1600,10 +1627,10 @@
         <v>96</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>10</v>
@@ -1617,10 +1644,10 @@
         <v>97</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>10</v>
@@ -1634,10 +1661,10 @@
         <v>98</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>10</v>
@@ -1651,10 +1678,10 @@
         <v>99</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>10</v>
@@ -1668,10 +1695,10 @@
         <v>100</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>26</v>
@@ -1698,19 +1725,19 @@
         <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1718,22 +1745,22 @@
         <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E2" s="2">
         <v>2428336</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1741,22 +1768,22 @@
         <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E3" s="2">
         <v>4500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1764,22 +1791,22 @@
         <v>112</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E4" s="2">
         <v>2700000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1787,22 +1814,22 @@
         <v>114</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E5" s="2">
         <v>373000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1810,22 +1837,22 @@
         <v>115</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E6" s="2">
         <v>298000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1833,22 +1860,22 @@
         <v>116</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E7" s="2">
         <v>284000</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1856,22 +1883,22 @@
         <v>117</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E8" s="2">
         <v>800000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/王惠美_2012-03-31_財產申報表_tmp99d31.xlsx
+++ b/legislator/property/output/normal/王惠美_2012-03-31_財產申報表_tmp99d31.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="124">
   <si>
     <t>土地坐落</t>
   </si>
@@ -170,6 +170,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -179,6 +182,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>為升電裝工業股份有限公司</t>
   </si>
   <si>
@@ -200,7 +209,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2012-03-31</t>
+  </si>
+  <si>
+    <t>tmp99d31</t>
   </si>
   <si>
     <t>名稱</t>
@@ -1115,13 +1130,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>42</v>
       </c>
@@ -1152,13 +1167,22 @@
       <c r="K1" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>10</v>
@@ -1176,24 +1200,33 @@
         <v>30000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1729</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="N2" s="2">
         <v>59</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="2">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>10</v>
@@ -1211,24 +1244,33 @@
         <v>10000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="2">
+        <v>63</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="2">
         <v>1729</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="N3" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
@@ -1246,24 +1288,33 @@
         <v>22000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="2">
+        <v>63</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="2">
         <v>1729</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="N4" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>62</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
@@ -1281,24 +1332,33 @@
         <v>10200</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="2">
+        <v>63</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="2">
         <v>1729</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="N5" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>63</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>26</v>
@@ -1316,24 +1376,33 @@
         <v>104400</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="2">
+        <v>63</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="2">
         <v>1729</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="M6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="N6" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>64</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>26</v>
@@ -1351,16 +1420,25 @@
         <v>53000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="2">
+        <v>63</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="2">
         <v>1729</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="N7" s="2">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1378,19 +1456,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>33</v>
@@ -1401,7 +1479,7 @@
         <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
@@ -1424,14 +1502,14 @@
         <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -1441,22 +1519,22 @@
         <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1474,16 +1552,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1491,10 +1569,10 @@
         <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>10</v>
@@ -1508,10 +1586,10 @@
         <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
@@ -1525,10 +1603,10 @@
         <v>90</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
@@ -1542,10 +1620,10 @@
         <v>91</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
@@ -1559,10 +1637,10 @@
         <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>26</v>
@@ -1576,10 +1654,10 @@
         <v>93</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
@@ -1593,10 +1671,10 @@
         <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>26</v>
@@ -1610,10 +1688,10 @@
         <v>95</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>10</v>
@@ -1627,10 +1705,10 @@
         <v>96</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>10</v>
@@ -1644,10 +1722,10 @@
         <v>97</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>10</v>
@@ -1661,10 +1739,10 @@
         <v>98</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>10</v>
@@ -1678,10 +1756,10 @@
         <v>99</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>10</v>
@@ -1695,10 +1773,10 @@
         <v>100</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>26</v>
@@ -1725,19 +1803,19 @@
         <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1745,22 +1823,22 @@
         <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E2" s="2">
         <v>2428336</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1768,22 +1846,22 @@
         <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E3" s="2">
         <v>4500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1791,22 +1869,22 @@
         <v>112</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E4" s="2">
         <v>2700000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1814,22 +1892,22 @@
         <v>114</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E5" s="2">
         <v>373000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1837,22 +1915,22 @@
         <v>115</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E6" s="2">
         <v>298000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1860,22 +1938,22 @@
         <v>116</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E7" s="2">
         <v>284000</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1883,22 +1961,22 @@
         <v>117</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E8" s="2">
         <v>800000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/王惠美_2012-03-31_財產申報表_tmp99d31.xlsx
+++ b/legislator/property/output/normal/王惠美_2012-03-31_財產申報表_tmp99d31.xlsx
@@ -21,9 +21,90 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="124">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="128">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>彰化縣鹿港鎮山崙段04860000地號‘</t>
+  </si>
+  <si>
+    <t>彰化縣鹿港鎮鹿德段05740000地號</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>王惠美</t>
+  </si>
+  <si>
+    <t>100年02月16曰</t>
+  </si>
+  <si>
+    <t>86年08月05日</t>
+  </si>
+  <si>
+    <t>(購買土地）</t>
+  </si>
+  <si>
+    <t>第一次登記</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-03-31</t>
+  </si>
+  <si>
+    <t>tmp99d31</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -38,46 +119,13 @@
     <t>登記（取得）時間</t>
   </si>
   <si>
-    <t>登記（取'得）原因</t>
+    <t>登記（取得）原因</t>
   </si>
   <si>
     <t>取得價額</t>
   </si>
   <si>
-    <t>彰化縣鹿港鎮山崙段0486-0000 地號 ‘</t>
-  </si>
-  <si>
-    <t>彰化縣鹿港鎮鹿德段0574-0000 地號</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>王惠美</t>
-  </si>
-  <si>
-    <t>100 年 02 月16曰</t>
-  </si>
-  <si>
-    <t>86年08月 05日</t>
-  </si>
-  <si>
-    <t>(購買土 地）</t>
-  </si>
-  <si>
-    <t>第一次登 記</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>彰化縣鹿港鎮鹿德段00362-000 建號</t>
+    <t>彰化縣鹿港鎮鹿德段00362000建號</t>
   </si>
   <si>
     <t>買賣</t>
@@ -95,22 +143,22 @@
     <t>來得價額</t>
   </si>
   <si>
-    <t>NISSAN INFINITIQX4</t>
-  </si>
-  <si>
-    <t>中華 CL24SDA</t>
+    <t>NISSANINFINITIQX4</t>
+  </si>
+  <si>
+    <t>中華CL24SDA</t>
   </si>
   <si>
     <t>周明亞</t>
   </si>
   <si>
-    <t>100 年 11 月10曰</t>
-  </si>
-  <si>
-    <t>101 年 03 月16曰</t>
-  </si>
-  <si>
-    <t>(購入自 用）</t>
+    <t>100年11月10曰</t>
+  </si>
+  <si>
+    <t>101年03月16曰</t>
+  </si>
+  <si>
+    <t>(購入自用）</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -128,7 +176,7 @@
     <t>鹿港鎮農會</t>
   </si>
   <si>
-    <t>彰化縣第六信用合作社福 興分社</t>
+    <t>彰化縣第六信用合作社福興分社</t>
   </si>
   <si>
     <t>鹿港郵局（彰化27支）</t>
@@ -146,13 +194,7 @@
     <t>新臺幣</t>
   </si>
   <si>
-    <t>4，560</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
+    <t>4560</t>
   </si>
   <si>
     <t>quantity</t>
@@ -167,27 +209,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>為升電裝工業股份有限公司</t>
   </si>
   <si>
@@ -209,15 +230,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-03-31</t>
-  </si>
-  <si>
-    <t>tmp99d31</t>
-  </si>
-  <si>
     <t>名稱</t>
   </si>
   <si>
@@ -233,22 +245,22 @@
     <t>彰化縣鹿港信用合作社</t>
   </si>
   <si>
-    <t>(九）珠寶、古董、字畫及#</t>
-  </si>
-  <si>
-    <t>財 產種類</t>
-  </si>
-  <si>
-    <t>-他具有相當價值之財產（總</t>
-  </si>
-  <si>
-    <t>項 /</t>
+    <t>(九）珠寶古董字畫及#</t>
+  </si>
+  <si>
+    <t>財產種類</t>
+  </si>
+  <si>
+    <t>他具有相當價值之財產（總</t>
+  </si>
+  <si>
+    <t>項</t>
   </si>
   <si>
     <t>件</t>
   </si>
   <si>
-    <t>1額：新臺幣 元）</t>
+    <t>1額：新臺幣元）</t>
   </si>
   <si>
     <t>價</t>
@@ -284,40 +296,40 @@
     <t>J1178428至尊還本終身保險</t>
   </si>
   <si>
-    <t>J 6055446至尊還本終身保險</t>
-  </si>
-  <si>
-    <t>J 6055445至尊還本終身保險</t>
+    <t>J6055446至尊還本終身保險</t>
+  </si>
+  <si>
+    <t>J6055445至尊還本終身保險</t>
   </si>
   <si>
     <t>H5081942安家保本終身壽險</t>
   </si>
   <si>
-    <t>N440147604新20年期增值分 红養老壽險</t>
-  </si>
-  <si>
-    <t>N470210925 312還本終身保 險</t>
-  </si>
-  <si>
-    <t>N124823838-1CS安泰子女儲 蓄保險</t>
-  </si>
-  <si>
-    <t>N124823838-3ULB 安泰人壽 靈活理財變額保險乙型</t>
-  </si>
-  <si>
-    <t>N225449516-2ULB 安泰人壽 靈活理財變額保險乙型</t>
-  </si>
-  <si>
-    <t>N225858793-2ULB 安泰人壽 靈活理財變額保險乙型</t>
-  </si>
-  <si>
-    <t>AR08319530新百年終身還本 壽險</t>
-  </si>
-  <si>
-    <t>A1M8628600吉祥如意終身壽 險</t>
-  </si>
-  <si>
-    <t>ATM8305870吉祥如意終身壽 險</t>
+    <t>N440147604新20年期增值分红養老壽險</t>
+  </si>
+  <si>
+    <t>N470210925312還本終身保險</t>
+  </si>
+  <si>
+    <t>N1248238381CS安泰子女儲蓄保險</t>
+  </si>
+  <si>
+    <t>N1248238383ULB安泰人壽靈活理財變額保險乙型</t>
+  </si>
+  <si>
+    <t>N2254495162ULB安泰人壽靈活理財變額保險乙型</t>
+  </si>
+  <si>
+    <t>N2258587932ULB安泰人壽靈活理財變額保險乙型</t>
+  </si>
+  <si>
+    <t>AR08319530新百年終身還本壽險</t>
+  </si>
+  <si>
+    <t>A1M8628600吉祥如意終身壽險</t>
+  </si>
+  <si>
+    <t>ATM8305870吉祥如意終身壽險</t>
   </si>
   <si>
     <t>債務人</t>
@@ -341,55 +353,55 @@
     <t>保單借款</t>
   </si>
   <si>
-    <t>彰化縣第六信用合作社 彰化縣福興鄉彰鹿路</t>
-  </si>
-  <si>
-    <t>彰化縣鹿港信用合作社 彰 &lt;匕縣鹿港鎮中山路</t>
-  </si>
-  <si>
-    <t>鹿港鎮農會 彰化縣鹿港鎮順興里建國路</t>
-  </si>
-  <si>
-    <t>新光金控y新光人壽鹿港分 公司 彰{b縣鹿港鎮民權路</t>
-  </si>
-  <si>
-    <t>新光金控Z新光人壽鹿港分 公司 彰化縣鹿港鎮民權路</t>
-  </si>
-  <si>
-    <t>新光金控/新光人壽鹿港分 公司 彰化縣鹿港鎮民權路</t>
-  </si>
-  <si>
-    <t>南山人壽 彰化縣彰化市金馬路</t>
-  </si>
-  <si>
-    <t>96年02月 09日</t>
-  </si>
-  <si>
-    <t>100年10月 30日</t>
-  </si>
-  <si>
-    <t>100年03月 01日</t>
-  </si>
-  <si>
-    <t>96年07月 25日</t>
-  </si>
-  <si>
-    <t>100年03月 14日</t>
-  </si>
-  <si>
-    <t>自用住宅購 屋</t>
-  </si>
-  <si>
-    <t>購買鹿信股 票</t>
+    <t>彰化縣第六信用合作社彰化縣福興鄉彰鹿路</t>
+  </si>
+  <si>
+    <t>彰化縣鹿港信用合作社彰&lt;匕縣鹿港鎮中山路</t>
+  </si>
+  <si>
+    <t>鹿港鎮農會彰化縣鹿港鎮順興里建國路</t>
+  </si>
+  <si>
+    <t>新光金控y新光人壽鹿港分公司彰{b縣鹿港鎮民權路</t>
+  </si>
+  <si>
+    <t>新光金控Z新光人壽鹿港分公司彰化縣鹿港鎮民權路</t>
+  </si>
+  <si>
+    <t>新光金控新光人壽鹿港分公司彰化縣鹿港鎮民權路</t>
+  </si>
+  <si>
+    <t>南山人壽彰化縣彰化市金馬路</t>
+  </si>
+  <si>
+    <t>96年02月09日</t>
+  </si>
+  <si>
+    <t>100年10月30日</t>
+  </si>
+  <si>
+    <t>100年03月01日</t>
+  </si>
+  <si>
+    <t>96年07月25日</t>
+  </si>
+  <si>
+    <t>100年03月14日</t>
+  </si>
+  <si>
+    <t>自用住宅購屋</t>
+  </si>
+  <si>
+    <t>購買鹿信股票</t>
   </si>
   <si>
     <t>購買土地</t>
   </si>
   <si>
-    <t>供母親企業 資金運用</t>
-  </si>
-  <si>
-    <t>供岳母企業 資金運用</t>
+    <t>供母親企業資金運用</t>
+  </si>
+  <si>
+    <t>供岳母企業資金運用</t>
   </si>
   <si>
     <t>選舉使用</t>
@@ -751,13 +763,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -779,57 +791,120 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>3444.49</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H2" s="2">
         <v>3080000</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1729</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>74.8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1729</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="2">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -847,25 +922,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -873,25 +948,25 @@
         <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2">
         <v>189.14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -909,22 +984,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -932,19 +1007,19 @@
         <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2">
         <v>3275</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G2" s="2">
         <v>83335</v>
@@ -955,19 +1030,19 @@
         <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2">
         <v>2378</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G3" s="2">
         <v>704000</v>
@@ -988,19 +1063,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1008,16 +1083,16 @@
         <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F2" s="2">
         <v>1949310</v>
@@ -1028,16 +1103,16 @@
         <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F3" s="2">
         <v>20</v>
@@ -1048,16 +1123,16 @@
         <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F4" s="2">
         <v>7229</v>
@@ -1068,16 +1143,16 @@
         <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2">
         <v>1715</v>
@@ -1088,19 +1163,19 @@
         <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1108,16 +1183,16 @@
         <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F7" s="2">
         <v>22162</v>
@@ -1138,43 +1213,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1182,10 +1257,10 @@
         <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2">
         <v>3000</v>
@@ -1194,28 +1269,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="G2" s="2">
         <v>30000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="L2" s="2">
         <v>1729</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="N2" s="2">
         <v>59</v>
@@ -1226,10 +1301,10 @@
         <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2">
         <v>1000</v>
@@ -1238,28 +1313,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="G3" s="2">
         <v>10000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="L3" s="2">
         <v>1729</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="N3" s="2">
         <v>60</v>
@@ -1270,10 +1345,10 @@
         <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2">
         <v>2200</v>
@@ -1282,28 +1357,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="G4" s="2">
         <v>22000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="L4" s="2">
         <v>1729</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="N4" s="2">
         <v>61</v>
@@ -1314,10 +1389,10 @@
         <v>62</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2">
         <v>1020</v>
@@ -1326,28 +1401,28 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="G5" s="2">
         <v>10200</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="L5" s="2">
         <v>1729</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="N5" s="2">
         <v>62</v>
@@ -1358,10 +1433,10 @@
         <v>63</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2">
         <v>10440</v>
@@ -1370,28 +1445,28 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="G6" s="2">
         <v>104400</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="L6" s="2">
         <v>1729</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="N6" s="2">
         <v>63</v>
@@ -1402,10 +1477,10 @@
         <v>64</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D7" s="2">
         <v>5300</v>
@@ -1414,28 +1489,28 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="G7" s="2">
         <v>53000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="L7" s="2">
         <v>1729</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="N7" s="2">
         <v>64</v>
@@ -1456,22 +1531,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1479,10 +1554,10 @@
         <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2">
         <v>83500</v>
@@ -1491,7 +1566,7 @@
         <v>100</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="G2" s="2">
         <v>8350000</v>
@@ -1502,14 +1577,14 @@
         <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -1519,22 +1594,22 @@
         <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1552,16 +1627,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1569,13 +1644,13 @@
         <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2">
         <v>1150497</v>
@@ -1586,13 +1661,13 @@
         <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2">
         <v>1392408</v>
@@ -1603,13 +1678,13 @@
         <v>90</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2">
         <v>1398687</v>
@@ -1620,13 +1695,13 @@
         <v>91</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E5" s="2">
         <v>370786</v>
@@ -1637,13 +1712,13 @@
         <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E6" s="2">
         <v>716400</v>
@@ -1654,13 +1729,13 @@
         <v>93</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E7" s="2">
         <v>566680</v>
@@ -1671,13 +1746,13 @@
         <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E8" s="2">
         <v>495000</v>
@@ -1688,13 +1763,13 @@
         <v>95</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E9" s="2">
         <v>180000</v>
@@ -1705,13 +1780,13 @@
         <v>96</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E10" s="2">
         <v>180000</v>
@@ -1722,13 +1797,13 @@
         <v>97</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E11" s="2">
         <v>180000</v>
@@ -1739,13 +1814,13 @@
         <v>98</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E12" s="2">
         <v>500000</v>
@@ -1756,13 +1831,13 @@
         <v>99</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E13" s="2">
         <v>1064574</v>
@@ -1773,13 +1848,13 @@
         <v>100</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E14" s="2">
         <v>1156323</v>
@@ -1800,22 +1875,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1823,22 +1898,22 @@
         <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E2" s="2">
         <v>2428336</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1846,22 +1921,22 @@
         <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E3" s="2">
         <v>4500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1869,22 +1944,22 @@
         <v>112</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E4" s="2">
         <v>2700000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1892,22 +1967,22 @@
         <v>114</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E5" s="2">
         <v>373000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1915,22 +1990,22 @@
         <v>115</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E6" s="2">
         <v>298000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1938,22 +2013,22 @@
         <v>116</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E7" s="2">
         <v>284000</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1961,22 +2036,22 @@
         <v>117</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E8" s="2">
         <v>800000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/王惠美_2012-03-31_財產申報表_tmp99d31.xlsx
+++ b/legislator/property/output/normal/王惠美_2012-03-31_財產申報表_tmp99d31.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="102">
   <si>
     <t>name</t>
   </si>
@@ -71,6 +71,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>彰化縣鹿港鎮山崙段04860000地號‘</t>
+  </si>
+  <si>
     <t>彰化縣鹿港鎮鹿德段05740000地號</t>
   </si>
   <si>
@@ -80,9 +83,15 @@
     <t>王惠美</t>
   </si>
   <si>
+    <t>100年02月16曰</t>
+  </si>
+  <si>
     <t>86年08月05日</t>
   </si>
   <si>
+    <t>(購買土地）</t>
+  </si>
+  <si>
     <t>第一次登記</t>
   </si>
   <si>
@@ -156,6 +165,9 @@
   </si>
   <si>
     <t>currency</t>
+  </si>
+  <si>
+    <t>為升電裝工業股份有限公司</t>
   </si>
   <si>
     <t>佳能企業股份有限公司</t>
@@ -673,7 +685,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -731,54 +743,107 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>74.8</v>
+        <v>3444.49</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="H2" s="2">
+        <v>3080000</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M2" s="2">
         <v>1729</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O2" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P2" s="2">
         <v>1</v>
       </c>
       <c r="Q2" s="2">
+        <v>3444.49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2">
+        <v>74.8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1729</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="2">
+        <v>16</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
         <v>74.8</v>
       </c>
     </row>
@@ -789,33 +854,113 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2">
+        <v>189.14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="1">
+      <c r="K2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1729</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="2">
+        <v>21</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
         <v>189.14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -824,466 +969,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="1">
-        <v>3275</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="1">
-        <v>83335</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>32</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2378</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="2">
-        <v>704000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1">
-        <v>1949310</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>48</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>49</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="2">
-        <v>7229</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>50</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1715</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>51</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>52</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="2">
-        <v>22162</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1">
-        <v>60</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E2" s="2">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="2">
-        <v>10000</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="2">
-        <v>1729</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1">
-        <v>61</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="2">
-        <v>2200</v>
-      </c>
-      <c r="E3" s="2">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="2">
-        <v>22000</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="2">
-        <v>1729</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" s="2">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1">
-        <v>62</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1020</v>
-      </c>
-      <c r="E4" s="2">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="2">
-        <v>10200</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="2">
-        <v>1729</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" s="2">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="1">
-        <v>63</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="2">
-        <v>10440</v>
-      </c>
-      <c r="E5" s="2">
-        <v>10</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="2">
-        <v>104400</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="2">
-        <v>1729</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5" s="2">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="1">
-        <v>64</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="2">
-        <v>5300</v>
-      </c>
-      <c r="E6" s="2">
-        <v>10</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="2">
-        <v>53000</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="2">
-        <v>1729</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N6" s="2">
-        <v>64</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -1293,10 +978,557 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1">
+        <v>3275</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="1">
+        <v>83335</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3275</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="2">
+        <v>83335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>32</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2378</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="2">
+        <v>704000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1">
+        <v>1949310</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>47</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1949310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>48</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>49</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="2">
+        <v>7229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>50</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
         <v>51</v>
       </c>
+      <c r="B6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>52</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="2">
+        <v>22162</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>59</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="2">
+        <v>30000</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1729</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1729</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1">
+        <v>61</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2200</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="2">
+        <v>22000</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1729</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1">
+        <v>62</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1020</v>
+      </c>
+      <c r="E5" s="2">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="2">
+        <v>10200</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1729</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1">
+        <v>63</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="2">
+        <v>10440</v>
+      </c>
+      <c r="E6" s="2">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="2">
+        <v>104400</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1729</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1">
+        <v>64</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5300</v>
+      </c>
+      <c r="E7" s="2">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="2">
+        <v>53000</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1729</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" s="2">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D1" s="1">
         <v>83500</v>
@@ -1305,7 +1537,7 @@
         <v>100</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1">
         <v>8350000</v>
@@ -1313,42 +1545,65 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="D2" s="2">
+        <v>83500</v>
+      </c>
+      <c r="E2" s="2">
+        <v>100</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="2">
+        <v>8350000</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
+        <v>81</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
         <v>82</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>60</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1358,7 +1613,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1366,13 +1621,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1">
         <v>1150497</v>
@@ -1380,135 +1635,135 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2">
-        <v>1392408</v>
+        <v>1150497</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2">
-        <v>1398687</v>
+        <v>1392408</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2">
-        <v>370786</v>
+        <v>1398687</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2">
-        <v>716400</v>
+        <v>370786</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E6" s="2">
-        <v>566680</v>
+        <v>716400</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E7" s="2">
-        <v>495000</v>
+        <v>566680</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E8" s="2">
-        <v>180000</v>
+        <v>495000</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9" s="2">
         <v>180000</v>
@@ -1516,16 +1771,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10" s="2">
         <v>180000</v>
@@ -1533,52 +1788,69 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E11" s="2">
-        <v>500000</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E12" s="2">
-        <v>1064574</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
+        <v>99</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1064574</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
         <v>100</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="B14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="2">
         <v>1156323</v>
       </c>
     </row>
@@ -1589,7 +1861,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1597,160 +1869,183 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1">
         <v>2428336</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>83</v>
       </c>
       <c r="E2" s="2">
-        <v>4500000</v>
+        <v>2428336</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E3" s="2">
-        <v>2700000</v>
+        <v>4500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E4" s="2">
-        <v>373000</v>
+        <v>2700000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E5" s="2">
-        <v>298000</v>
+        <v>373000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E6" s="2">
-        <v>284000</v>
+        <v>298000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
+        <v>116</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="2">
+        <v>284000</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
         <v>117</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="B8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="2">
         <v>800000</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>97</v>
+      <c r="F8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/王惠美_2012-03-31_財產申報表_tmp99d31.xlsx
+++ b/legislator/property/output/normal/王惠美_2012-03-31_財產申報表_tmp99d31.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="103">
   <si>
     <t>name</t>
   </si>
@@ -116,22 +116,25 @@
     <t>買賣</t>
   </si>
   <si>
+    <t>capacity</t>
+  </si>
+  <si>
     <t>NISSANINFINITIQX4</t>
   </si>
   <si>
+    <t>中華CL24SDA</t>
+  </si>
+  <si>
     <t>周明亞</t>
   </si>
   <si>
     <t>100年11月10曰</t>
   </si>
   <si>
+    <t>101年03月16曰</t>
+  </si>
+  <si>
     <t>(購入自用）</t>
-  </si>
-  <si>
-    <t>中華CL24SDA</t>
-  </si>
-  <si>
-    <t>101年03月16曰</t>
   </si>
   <si>
     <t>鹿港鎮農會</t>
@@ -970,76 +973,139 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="1">
-        <v>3275</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="1">
-        <v>83335</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2">
         <v>3275</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G2" s="2">
         <v>83335</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1729</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2">
         <v>2378</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G3" s="2">
         <v>704000</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1729</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="2">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1057,13 +1123,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>19</v>
@@ -1077,13 +1143,13 @@
         <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>19</v>
@@ -1097,13 +1163,13 @@
         <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>19</v>
@@ -1117,13 +1183,13 @@
         <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>19</v>
@@ -1137,13 +1203,13 @@
         <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>19</v>
@@ -1157,19 +1223,19 @@
         <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1177,13 +1243,13 @@
         <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>19</v>
@@ -1213,13 +1279,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1251,7 +1317,7 @@
         <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>19</v>
@@ -1263,13 +1329,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G2" s="2">
         <v>30000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>26</v>
@@ -1295,7 +1361,7 @@
         <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>19</v>
@@ -1307,13 +1373,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G3" s="2">
         <v>10000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>26</v>
@@ -1339,7 +1405,7 @@
         <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>19</v>
@@ -1351,13 +1417,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G4" s="2">
         <v>22000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>26</v>
@@ -1383,7 +1449,7 @@
         <v>62</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>19</v>
@@ -1395,13 +1461,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G5" s="2">
         <v>10200</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>26</v>
@@ -1427,10 +1493,10 @@
         <v>63</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2">
         <v>10440</v>
@@ -1439,13 +1505,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G6" s="2">
         <v>104400</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>26</v>
@@ -1471,10 +1537,10 @@
         <v>64</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D7" s="2">
         <v>5300</v>
@@ -1483,13 +1549,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="2">
         <v>53000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>26</v>
@@ -1525,10 +1591,10 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1">
         <v>83500</v>
@@ -1537,7 +1603,7 @@
         <v>100</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" s="1">
         <v>8350000</v>
@@ -1548,10 +1614,10 @@
         <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2">
         <v>83500</v>
@@ -1560,7 +1626,7 @@
         <v>100</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G2" s="2">
         <v>8350000</v>
@@ -1571,14 +1637,14 @@
         <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -1588,22 +1654,22 @@
         <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1621,10 +1687,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>19</v>
@@ -1638,10 +1704,10 @@
         <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
@@ -1655,10 +1721,10 @@
         <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>19</v>
@@ -1672,10 +1738,10 @@
         <v>90</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>19</v>
@@ -1689,10 +1755,10 @@
         <v>91</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>19</v>
@@ -1706,13 +1772,13 @@
         <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E6" s="2">
         <v>716400</v>
@@ -1723,10 +1789,10 @@
         <v>93</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>19</v>
@@ -1740,13 +1806,13 @@
         <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E8" s="2">
         <v>495000</v>
@@ -1757,10 +1823,10 @@
         <v>95</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>19</v>
@@ -1774,10 +1840,10 @@
         <v>96</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>19</v>
@@ -1791,10 +1857,10 @@
         <v>97</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>19</v>
@@ -1808,10 +1874,10 @@
         <v>98</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>19</v>
@@ -1825,10 +1891,10 @@
         <v>99</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>19</v>
@@ -1842,13 +1908,13 @@
         <v>100</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E14" s="2">
         <v>1156323</v>
@@ -1869,22 +1935,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1">
         <v>2428336</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1892,22 +1958,22 @@
         <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2">
         <v>2428336</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1915,22 +1981,22 @@
         <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E3" s="2">
         <v>4500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1938,22 +2004,22 @@
         <v>112</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E4" s="2">
         <v>2700000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1961,22 +2027,22 @@
         <v>114</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E5" s="2">
         <v>373000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1984,22 +2050,22 @@
         <v>115</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E6" s="2">
         <v>298000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2007,22 +2073,22 @@
         <v>116</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E7" s="2">
         <v>284000</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2030,22 +2096,22 @@
         <v>117</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E8" s="2">
         <v>800000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/王惠美_2012-03-31_財產申報表_tmp99d31.xlsx
+++ b/legislator/property/output/normal/王惠美_2012-03-31_財產申報表_tmp99d31.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="105">
   <si>
     <t>name</t>
   </si>
@@ -116,6 +116,9 @@
     <t>買賣</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -135,6 +138,9 @@
   </si>
   <si>
     <t>(購入自用）</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>鹿港鎮農會</t>
@@ -939,7 +945,7 @@
         <v>24</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>26</v>
@@ -984,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1025,25 +1031,25 @@
         <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2">
         <v>3275</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G2" s="2">
         <v>83335</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>26</v>
@@ -1069,25 +1075,25 @@
         <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" s="2">
         <v>2378</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G3" s="2">
         <v>704000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>26</v>
@@ -1123,13 +1129,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>19</v>
@@ -1143,13 +1149,13 @@
         <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>19</v>
@@ -1163,13 +1169,13 @@
         <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>19</v>
@@ -1183,13 +1189,13 @@
         <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>19</v>
@@ -1203,13 +1209,13 @@
         <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>19</v>
@@ -1223,19 +1229,19 @@
         <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="E6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1243,13 +1249,13 @@
         <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>19</v>
@@ -1279,13 +1285,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1317,7 +1323,7 @@
         <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>19</v>
@@ -1329,13 +1335,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G2" s="2">
         <v>30000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>26</v>
@@ -1361,7 +1367,7 @@
         <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>19</v>
@@ -1373,13 +1379,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G3" s="2">
         <v>10000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>26</v>
@@ -1405,7 +1411,7 @@
         <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>19</v>
@@ -1417,13 +1423,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G4" s="2">
         <v>22000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>26</v>
@@ -1449,7 +1455,7 @@
         <v>62</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>19</v>
@@ -1461,13 +1467,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G5" s="2">
         <v>10200</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>26</v>
@@ -1493,10 +1499,10 @@
         <v>63</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D6" s="2">
         <v>10440</v>
@@ -1505,13 +1511,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G6" s="2">
         <v>104400</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>26</v>
@@ -1537,10 +1543,10 @@
         <v>64</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2">
         <v>5300</v>
@@ -1549,13 +1555,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G7" s="2">
         <v>53000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>26</v>
@@ -1591,10 +1597,10 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1">
         <v>83500</v>
@@ -1603,7 +1609,7 @@
         <v>100</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1">
         <v>8350000</v>
@@ -1614,10 +1620,10 @@
         <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2">
         <v>83500</v>
@@ -1626,7 +1632,7 @@
         <v>100</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G2" s="2">
         <v>8350000</v>
@@ -1637,14 +1643,14 @@
         <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -1654,22 +1660,22 @@
         <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1687,10 +1693,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>19</v>
@@ -1704,10 +1710,10 @@
         <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
@@ -1721,10 +1727,10 @@
         <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>19</v>
@@ -1738,10 +1744,10 @@
         <v>90</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>19</v>
@@ -1755,10 +1761,10 @@
         <v>91</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>19</v>
@@ -1772,13 +1778,13 @@
         <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E6" s="2">
         <v>716400</v>
@@ -1789,10 +1795,10 @@
         <v>93</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>19</v>
@@ -1806,13 +1812,13 @@
         <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E8" s="2">
         <v>495000</v>
@@ -1823,10 +1829,10 @@
         <v>95</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>19</v>
@@ -1840,10 +1846,10 @@
         <v>96</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>19</v>
@@ -1857,10 +1863,10 @@
         <v>97</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>19</v>
@@ -1874,10 +1880,10 @@
         <v>98</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>19</v>
@@ -1891,10 +1897,10 @@
         <v>99</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>19</v>
@@ -1908,13 +1914,13 @@
         <v>100</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E14" s="2">
         <v>1156323</v>
@@ -1935,22 +1941,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1">
         <v>2428336</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1958,22 +1964,22 @@
         <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E2" s="2">
         <v>2428336</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1981,22 +1987,22 @@
         <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E3" s="2">
         <v>4500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2004,22 +2010,22 @@
         <v>112</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E4" s="2">
         <v>2700000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2027,22 +2033,22 @@
         <v>114</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E5" s="2">
         <v>373000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2050,22 +2056,22 @@
         <v>115</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E6" s="2">
         <v>298000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2073,22 +2079,22 @@
         <v>116</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E7" s="2">
         <v>284000</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2096,22 +2102,22 @@
         <v>117</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E8" s="2">
         <v>800000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/王惠美_2012-03-31_財產申報表_tmp99d31.xlsx
+++ b/legislator/property/output/normal/王惠美_2012-03-31_財產申報表_tmp99d31.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="107">
   <si>
     <t>name</t>
   </si>
@@ -143,37 +143,43 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>鹿港鎮農會</t>
   </si>
   <si>
+    <t>彰化縣第六信用合作社福興分社</t>
+  </si>
+  <si>
+    <t>鹿港郵局（彰化27支）</t>
+  </si>
+  <si>
+    <t>元大商業銀行鹿港分行</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
+    <t>支票存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>彰化縣第六信用合作社福興分社</t>
-  </si>
-  <si>
-    <t>鹿港郵局（彰化27支）</t>
-  </si>
-  <si>
-    <t>元大商業銀行鹿港分行</t>
-  </si>
-  <si>
-    <t>支票存款</t>
-  </si>
-  <si>
-    <t>4560</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>為升電裝工業股份有限公司</t>
@@ -1121,13 +1127,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>40</v>
       </c>
@@ -1138,24 +1144,45 @@
         <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="1">
-        <v>1949310</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>19</v>
@@ -1163,19 +1190,40 @@
       <c r="F2" s="2">
         <v>1949310</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1729</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>19</v>
@@ -1183,19 +1231,40 @@
       <c r="F3" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1729</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>19</v>
@@ -1203,19 +1272,40 @@
       <c r="F4" s="2">
         <v>7229</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1729</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>19</v>
@@ -1223,45 +1313,108 @@
       <c r="F5" s="2">
         <v>1715</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1729</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="F6" s="2">
+        <v>4560</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1729</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="2">
         <v>22162</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1729</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="2">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1285,13 +1438,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1323,7 +1476,7 @@
         <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>19</v>
@@ -1335,13 +1488,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G2" s="2">
         <v>30000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>26</v>
@@ -1367,7 +1520,7 @@
         <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>19</v>
@@ -1379,13 +1532,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G3" s="2">
         <v>10000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>26</v>
@@ -1411,7 +1564,7 @@
         <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>19</v>
@@ -1423,13 +1576,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G4" s="2">
         <v>22000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>26</v>
@@ -1455,7 +1608,7 @@
         <v>62</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>19</v>
@@ -1467,13 +1620,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G5" s="2">
         <v>10200</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>26</v>
@@ -1499,7 +1652,7 @@
         <v>63</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>35</v>
@@ -1511,13 +1664,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G6" s="2">
         <v>104400</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>26</v>
@@ -1543,7 +1696,7 @@
         <v>64</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>35</v>
@@ -1555,13 +1708,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G7" s="2">
         <v>53000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>26</v>
@@ -1597,7 +1750,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>35</v>
@@ -1609,7 +1762,7 @@
         <v>100</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1">
         <v>8350000</v>
@@ -1620,7 +1773,7 @@
         <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>35</v>
@@ -1632,7 +1785,7 @@
         <v>100</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G2" s="2">
         <v>8350000</v>
@@ -1643,14 +1796,14 @@
         <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -1660,22 +1813,22 @@
         <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1693,10 +1846,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>19</v>
@@ -1710,10 +1863,10 @@
         <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
@@ -1727,10 +1880,10 @@
         <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>19</v>
@@ -1744,10 +1897,10 @@
         <v>90</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>19</v>
@@ -1761,10 +1914,10 @@
         <v>91</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>19</v>
@@ -1778,10 +1931,10 @@
         <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>35</v>
@@ -1795,10 +1948,10 @@
         <v>93</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>19</v>
@@ -1812,10 +1965,10 @@
         <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>35</v>
@@ -1829,10 +1982,10 @@
         <v>95</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>19</v>
@@ -1846,10 +1999,10 @@
         <v>96</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>19</v>
@@ -1863,10 +2016,10 @@
         <v>97</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>19</v>
@@ -1880,10 +2033,10 @@
         <v>98</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>19</v>
@@ -1897,10 +2050,10 @@
         <v>99</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>19</v>
@@ -1914,10 +2067,10 @@
         <v>100</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>35</v>
@@ -1941,22 +2094,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E1" s="1">
         <v>2428336</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1964,22 +2117,22 @@
         <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E2" s="2">
         <v>2428336</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1987,22 +2140,22 @@
         <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E3" s="2">
         <v>4500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2010,22 +2163,22 @@
         <v>112</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E4" s="2">
         <v>2700000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2033,22 +2186,22 @@
         <v>114</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E5" s="2">
         <v>373000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2056,22 +2209,22 @@
         <v>115</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E6" s="2">
         <v>298000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2079,22 +2232,22 @@
         <v>116</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E7" s="2">
         <v>284000</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2102,22 +2255,22 @@
         <v>117</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E8" s="2">
         <v>800000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/王惠美_2012-03-31_財產申報表_tmp99d31.xlsx
+++ b/legislator/property/output/normal/王惠美_2012-03-31_財產申報表_tmp99d31.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="99">
   <si>
     <t>name</t>
   </si>
@@ -206,31 +206,7 @@
     <t>彰化縣鹿港信用合作社</t>
   </si>
   <si>
-    <t>(九）珠寶古董字畫及#</t>
-  </si>
-  <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>他具有相當價值之財產（總</t>
-  </si>
-  <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>1額：新臺幣元）</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
-    <t>額</t>
+    <t>otherbonds</t>
   </si>
   <si>
     <t>國華人壽</t>
@@ -1742,33 +1718,54 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="1">
-        <v>83500</v>
-      </c>
-      <c r="E1" s="1">
-        <v>100</v>
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="1">
-        <v>8350000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>42</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>79</v>
       </c>
@@ -1790,45 +1787,26 @@
       <c r="G2" s="2">
         <v>8350000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>81</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>82</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>69</v>
+      <c r="I2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1729</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="2">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1846,10 +1824,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>19</v>
@@ -1863,10 +1841,10 @@
         <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
@@ -1880,10 +1858,10 @@
         <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>19</v>
@@ -1897,10 +1875,10 @@
         <v>90</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>19</v>
@@ -1914,10 +1892,10 @@
         <v>91</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>19</v>
@@ -1931,10 +1909,10 @@
         <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>35</v>
@@ -1948,10 +1926,10 @@
         <v>93</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>19</v>
@@ -1965,10 +1943,10 @@
         <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>35</v>
@@ -1982,10 +1960,10 @@
         <v>95</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>19</v>
@@ -1999,10 +1977,10 @@
         <v>96</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>19</v>
@@ -2016,10 +1994,10 @@
         <v>97</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>19</v>
@@ -2033,10 +2011,10 @@
         <v>98</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>19</v>
@@ -2050,10 +2028,10 @@
         <v>99</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>19</v>
@@ -2067,10 +2045,10 @@
         <v>100</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>35</v>
@@ -2094,22 +2072,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1">
         <v>2428336</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2117,22 +2095,22 @@
         <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E2" s="2">
         <v>2428336</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2140,22 +2118,22 @@
         <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E3" s="2">
         <v>4500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2163,22 +2141,22 @@
         <v>112</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E4" s="2">
         <v>2700000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2186,22 +2164,22 @@
         <v>114</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E5" s="2">
         <v>373000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2209,22 +2187,22 @@
         <v>115</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E6" s="2">
         <v>298000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2232,22 +2210,22 @@
         <v>116</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E7" s="2">
         <v>284000</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2255,22 +2233,22 @@
         <v>117</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E8" s="2">
         <v>800000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/王惠美_2012-03-31_財產申報表_tmp99d31.xlsx
+++ b/legislator/property/output/normal/王惠美_2012-03-31_財產申報表_tmp99d31.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="104">
   <si>
     <t>name</t>
   </si>
@@ -209,21 +209,24 @@
     <t>otherbonds</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>國華人壽</t>
   </si>
   <si>
+    <t>南山人壽</t>
+  </si>
+  <si>
+    <t>安泰人壽</t>
+  </si>
+  <si>
+    <t>新光人壽</t>
+  </si>
+  <si>
     <t>J1178428至尊還本終身保險</t>
   </si>
   <si>
-    <t>南山人壽</t>
-  </si>
-  <si>
-    <t>安泰人壽</t>
-  </si>
-  <si>
-    <t>新光人壽</t>
-  </si>
-  <si>
     <t>J6055446至尊還本終身保險</t>
   </si>
   <si>
@@ -260,51 +263,60 @@
     <t>ATM8305870吉祥如意終身壽險</t>
   </si>
   <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
     <t>抵押貸款</t>
   </si>
   <si>
+    <t>保單借款</t>
+  </si>
+  <si>
     <t>彰化縣第六信用合作社彰化縣福興鄉彰鹿路</t>
   </si>
   <si>
+    <t>彰化縣鹿港信用合作社彰&lt;匕縣鹿港鎮中山路</t>
+  </si>
+  <si>
+    <t>鹿港鎮農會彰化縣鹿港鎮順興里建國路</t>
+  </si>
+  <si>
+    <t>新光金控y新光人壽鹿港分公司彰{b縣鹿港鎮民權路</t>
+  </si>
+  <si>
+    <t>新光金控Z新光人壽鹿港分公司彰化縣鹿港鎮民權路</t>
+  </si>
+  <si>
+    <t>新光金控新光人壽鹿港分公司彰化縣鹿港鎮民權路</t>
+  </si>
+  <si>
+    <t>南山人壽彰化縣彰化市金馬路</t>
+  </si>
+  <si>
     <t>96年02月09日</t>
   </si>
   <si>
+    <t>100年10月30日</t>
+  </si>
+  <si>
+    <t>100年03月01日</t>
+  </si>
+  <si>
+    <t>96年07月25日</t>
+  </si>
+  <si>
+    <t>100年03月14日</t>
+  </si>
+  <si>
     <t>自用住宅購屋</t>
   </si>
   <si>
-    <t>保單借款</t>
-  </si>
-  <si>
-    <t>彰化縣鹿港信用合作社彰&lt;匕縣鹿港鎮中山路</t>
-  </si>
-  <si>
-    <t>鹿港鎮農會彰化縣鹿港鎮順興里建國路</t>
-  </si>
-  <si>
-    <t>新光金控y新光人壽鹿港分公司彰{b縣鹿港鎮民權路</t>
-  </si>
-  <si>
-    <t>新光金控Z新光人壽鹿港分公司彰化縣鹿港鎮民權路</t>
-  </si>
-  <si>
-    <t>新光金控新光人壽鹿港分公司彰化縣鹿港鎮民權路</t>
-  </si>
-  <si>
-    <t>南山人壽彰化縣彰化市金馬路</t>
-  </si>
-  <si>
-    <t>100年10月30日</t>
-  </si>
-  <si>
-    <t>100年03月01日</t>
-  </si>
-  <si>
-    <t>96年07月25日</t>
-  </si>
-  <si>
-    <t>100年03月14日</t>
-  </si>
-  <si>
     <t>購買鹿信股票</t>
   </si>
   <si>
@@ -318,6 +330,9 @@
   </si>
   <si>
     <t>選舉使用</t>
+  </si>
+  <si>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -1816,95 +1831,185 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="1">
-        <v>1150497</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="2">
-        <v>1150497</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="E2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1729</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="2">
-        <v>1392408</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="E3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1729</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>90</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="2">
-        <v>1398687</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="E4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1729</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>91</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="2">
-        <v>370786</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="E5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1729</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>92</v>
       </c>
@@ -1912,16 +2017,34 @@
         <v>64</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="2">
-        <v>716400</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="E6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1729</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>93</v>
       </c>
@@ -1929,16 +2052,34 @@
         <v>64</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="2">
-        <v>566680</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="E7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1729</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>94</v>
       </c>
@@ -1946,16 +2087,34 @@
         <v>65</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="2">
-        <v>495000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="E8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1729</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>95</v>
       </c>
@@ -1963,16 +2122,34 @@
         <v>65</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="2">
-        <v>180000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="E9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1729</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>96</v>
       </c>
@@ -1980,16 +2157,34 @@
         <v>65</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="2">
-        <v>180000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="E10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1729</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>97</v>
       </c>
@@ -1997,16 +2192,34 @@
         <v>65</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="2">
-        <v>180000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="E11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1729</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>98</v>
       </c>
@@ -2014,16 +2227,34 @@
         <v>66</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="2">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="E12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1729</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>99</v>
       </c>
@@ -2031,16 +2262,34 @@
         <v>66</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="2">
-        <v>1064574</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="E13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1729</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>100</v>
       </c>
@@ -2048,13 +2297,31 @@
         <v>66</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="2">
-        <v>1156323</v>
+      <c r="E14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1729</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="2">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2064,191 +2331,359 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="1">
-        <v>2428336</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>81</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E2" s="2">
         <v>2428336</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>97</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1729</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E3" s="2">
         <v>4500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>98</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1729</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>112</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E4" s="2">
         <v>2700000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>99</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1729</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>114</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E5" s="2">
         <v>373000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>100</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1729</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>115</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E6" s="2">
         <v>298000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>100</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1729</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>116</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E7" s="2">
         <v>284000</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>101</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1729</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>117</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E8" s="2">
         <v>800000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1729</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" s="2">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
